--- a/inst/extdata/meta_table.xlsx
+++ b/inst/extdata/meta_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Completed</t>
   </si>
@@ -78,9 +78,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Safety</t>
-  </si>
-  <si>
     <t>portrait</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>fictitious data</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>full</t>
   </si>
 </sst>
 </file>
@@ -924,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,31 +996,31 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1025,34 +1028,66 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3">
         <v>1.2</v>
       </c>
       <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/meta_table.xlsx
+++ b/inst/extdata/meta_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\STATISTICS\STUDY PLANNING\R_library\cctu\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\STATISTICS\NON STUDY FOLDER\Software\R\R Code Library\cctu\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Completed</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>full</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -604,8 +613,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,7 +940,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,8 +1014,8 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2">
-        <v>1.1000000000000001</v>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -1036,8 +1046,8 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3">
-        <v>1.2</v>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1068,8 +1078,8 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>1.3</v>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>

--- a/inst/extdata/meta_table.xlsx
+++ b/inst/extdata/meta_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Completed</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <t>fontsize</t>
   </si>
 </sst>
 </file>
@@ -937,15 +940,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1003,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1032,8 +1038,11 @@
       <c r="Q2" t="s">
         <v>31</v>
       </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1064,8 +1073,11 @@
       <c r="Q3" t="s">
         <v>31</v>
       </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1098,6 +1110,9 @@
       </c>
       <c r="O4" t="s">
         <v>24</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/meta_table.xlsx
+++ b/inst/extdata/meta_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Completed</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>fontsize</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
 </sst>
 </file>
@@ -940,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1127,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
